--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\게임기획\경진대회\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\git_local\CK-Practal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -98,9 +98,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="mm&quot;/&quot;\ dd"/>
+    <numFmt numFmtId="176" formatCode="mm&quot;/&quot;\ dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,8 +124,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,8 +158,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -159,13 +172,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -178,10 +274,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -190,8 +283,57 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -482,29 +624,29 @@
     <col min="2" max="45" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="B1" s="4">
+    <row r="1" spans="1:45" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="7">
         <v>43291</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="7">
         <v>43292</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="7">
         <v>43293</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="7">
         <v>43294</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="7">
         <v>43295</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="7">
         <v>43296</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="7">
         <v>43297</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="7">
         <v>43298</v>
       </c>
       <c r="J1" s="4">
@@ -620,303 +762,441 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="16"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="16"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="16"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="16"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="16"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="6"/>
-      <c r="AK20" s="6"/>
-      <c r="AL20" s="6"/>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="6"/>
-      <c r="AO20" s="6"/>
-      <c r="AP20" s="6"/>
-      <c r="AQ20" s="6"/>
-      <c r="AR20" s="6"/>
-      <c r="AS20" s="6"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="5"/>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="B22" s="17"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:45" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
